--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mriddi/Documents/GitHub/shserv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB7F4E-291C-EA40-9B63-A8838081508C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2BB51F-0F58-AA48-8FEF-35FE5445115F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{5F4142C5-5E87-4BD4-AD67-ACC36D5A7C60}"/>
   </bookViews>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF090FB-6F08-48F3-AF73-FF637570DE58}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -645,7 +645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -664,16 +664,8 @@
       <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT(B3,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-      <c r="K2" t="str">
-        <f>_xlfn.CONCAT(I2:I45)</f>
-        <v xml:space="preserve">1, 1, 5, 4, 2, 3, 2, 1, 2, 4, 1, 1, 2, 2, 4, 6, 1, 1, 1, 1, 5, 5, 3, 2, 1, 1, 4, 40, 2, 1, 1, 4, 1, 3, 3, 3, 3, 3, 3, 3, 1, 2, 2, 3, </v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -692,12 +684,8 @@
       <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="str">
-        <f>_xlfn.CONCAT(B4,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -716,12 +704,8 @@
       <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="str">
-        <f>_xlfn.CONCAT(B5,", ")</f>
-        <v xml:space="preserve">5, </v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -740,12 +724,8 @@
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="str">
-        <f>_xlfn.CONCAT(B6,", ")</f>
-        <v xml:space="preserve">4, </v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -764,12 +744,8 @@
       <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="str">
-        <f>_xlfn.CONCAT(B7,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -788,12 +764,8 @@
       <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="str">
-        <f>_xlfn.CONCAT(B8,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -812,12 +784,8 @@
       <c r="G8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="str">
-        <f>_xlfn.CONCAT(B9,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -836,12 +804,8 @@
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="str">
-        <f>_xlfn.CONCAT(B10,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -860,12 +824,8 @@
       <c r="G10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" t="str">
-        <f>_xlfn.CONCAT(B11,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -884,12 +844,8 @@
       <c r="G11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="str">
-        <f>_xlfn.CONCAT(B12,", ")</f>
-        <v xml:space="preserve">4, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -908,12 +864,8 @@
       <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I12" t="str">
-        <f>_xlfn.CONCAT(B13,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -932,12 +884,8 @@
       <c r="G13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I13" t="str">
-        <f>_xlfn.CONCAT(B14,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -956,12 +904,8 @@
       <c r="G14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I14" t="str">
-        <f>_xlfn.CONCAT(B15,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -971,12 +915,8 @@
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="str">
-        <f>_xlfn.CONCAT(B16,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -986,12 +926,8 @@
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I16" t="str">
-        <f>_xlfn.CONCAT(B17,", ")</f>
-        <v xml:space="preserve">4, </v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1001,12 +937,8 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I17" t="str">
-        <f>_xlfn.CONCAT(B18,", ")</f>
-        <v xml:space="preserve">6, </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1016,12 +948,8 @@
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" t="str">
-        <f>_xlfn.CONCAT(B19,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1031,12 +959,8 @@
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I19" t="str">
-        <f>_xlfn.CONCAT(B20,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1046,12 +970,8 @@
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I20" t="str">
-        <f>_xlfn.CONCAT(B21,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1061,12 +981,8 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="str">
-        <f>_xlfn.CONCAT(B22,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1076,12 +992,8 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I22" t="str">
-        <f>_xlfn.CONCAT(B23,", ")</f>
-        <v xml:space="preserve">5, </v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1091,12 +1003,8 @@
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I23" t="str">
-        <f>_xlfn.CONCAT(B24,", ")</f>
-        <v xml:space="preserve">5, </v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1106,12 +1014,8 @@
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I24" t="str">
-        <f>_xlfn.CONCAT(B25,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1121,12 +1025,8 @@
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I25" t="str">
-        <f>_xlfn.CONCAT(B26,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1136,12 +1036,8 @@
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I26" t="str">
-        <f>_xlfn.CONCAT(B27,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1151,12 +1047,8 @@
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I27" t="str">
-        <f>_xlfn.CONCAT(B28,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1166,12 +1058,8 @@
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I28" t="str">
-        <f>_xlfn.CONCAT(B29,", ")</f>
-        <v xml:space="preserve">4, </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1181,12 +1069,8 @@
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I29" t="str">
-        <f>_xlfn.CONCAT(B30,", ")</f>
-        <v xml:space="preserve">40, </v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1196,12 +1080,8 @@
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I30" t="str">
-        <f>_xlfn.CONCAT(B31,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1211,12 +1091,8 @@
       <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I31" t="str">
-        <f>_xlfn.CONCAT(B32,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1226,12 +1102,8 @@
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I32" t="str">
-        <f>_xlfn.CONCAT(B33,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1241,12 +1113,8 @@
       <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I33" t="str">
-        <f>_xlfn.CONCAT(B34,", ")</f>
-        <v xml:space="preserve">4, </v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1256,12 +1124,8 @@
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I34" t="str">
-        <f>_xlfn.CONCAT(B35,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1271,12 +1135,8 @@
       <c r="C35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I35" t="str">
-        <f>_xlfn.CONCAT(B36,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1286,12 +1146,8 @@
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" t="str">
-        <f>_xlfn.CONCAT(B37,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1301,12 +1157,8 @@
       <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I37" t="str">
-        <f>_xlfn.CONCAT(B38,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1316,12 +1168,8 @@
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I38" t="str">
-        <f>_xlfn.CONCAT(B39,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1331,12 +1179,8 @@
       <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I39" t="str">
-        <f>_xlfn.CONCAT(B40,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -1346,12 +1190,8 @@
       <c r="C40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I40" t="str">
-        <f>_xlfn.CONCAT(B41,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1361,12 +1201,8 @@
       <c r="C41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I41" t="str">
-        <f>_xlfn.CONCAT(B42,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1376,12 +1212,8 @@
       <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I42" t="str">
-        <f>_xlfn.CONCAT(B43,", ")</f>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1391,12 +1223,8 @@
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I43" t="str">
-        <f>_xlfn.CONCAT(B44,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1406,12 +1234,8 @@
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I44" t="str">
-        <f>_xlfn.CONCAT(B45,", ")</f>
-        <v xml:space="preserve">2, </v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1421,12 +1245,8 @@
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I45" t="str">
-        <f>_xlfn.CONCAT(B46,", ")</f>
-        <v xml:space="preserve">3, </v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1436,12 +1256,8 @@
       <c r="C46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I46" t="str">
-        <f>_xlfn.CONCAT(B47,", ")</f>
-        <v xml:space="preserve">4, </v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45</v>
       </c>
